--- a/output/summary/category_edited.xlsx
+++ b/output/summary/category_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiahua_chen\Documents\GitHub\ebike\output\summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D271429E-F8EF-41B4-B33F-35281C8E7C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3B4B5A-6855-48F1-B8F7-A8F2162820B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{6A48A5C3-0283-4A0E-8227-5FAA2A671FC0}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{6A48A5C3-0283-4A0E-8227-5FAA2A671FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -48,15 +48,9 @@
     <t>FALSE / N</t>
   </si>
   <si>
-    <t>FALSE / Percent</t>
-  </si>
-  <si>
     <t>TRUE / N</t>
   </si>
   <si>
-    <t>TRUE / Percent</t>
-  </si>
-  <si>
     <t>i_type</t>
   </si>
   <si>
@@ -346,6 +340,9 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Personal involvement</t>
   </si>
 </sst>
 </file>
@@ -426,7 +423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,12 +433,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -646,56 +737,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -734,13 +775,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{550C9C58-1674-49C5-9F24-88C2083D4C1D}" name="Table2" displayName="Table2" ref="B1:E92" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{550C9C58-1674-49C5-9F24-88C2083D4C1D}" name="Table2" displayName="Table2" ref="B1:E92" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="B1:E92" xr:uid="{550C9C58-1674-49C5-9F24-88C2083D4C1D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{79B61E41-B766-4FC0-A0B7-6720C620E230}" name="Characteristics"/>
     <tableColumn id="2" xr3:uid="{20376B65-1017-4634-A840-5EC9F0330258}" name="No injury"/>
     <tableColumn id="3" xr3:uid="{97840581-C3AE-4B41-88B0-45DCC10C2DB9}" name="Injury"/>
-    <tableColumn id="4" xr3:uid="{41A1F1B6-6A60-443B-95A7-9222984FD4B2}" name="Injury percentage" dataDxfId="10" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{41A1F1B6-6A60-443B-95A7-9222984FD4B2}" name="Injury percentage" dataDxfId="13" dataCellStyle="Percent">
       <calculatedColumnFormula>D2/(D2+C2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -749,15 +790,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0B74B5A1-9FDB-4611-AD4D-7DDD72954C15}" name="Table3" displayName="Table3" ref="B1:G81" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B9FCD267-D96D-4430-9588-794A5543020B}" name="Table26" displayName="Table26" ref="J1:N91" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="J1:N91" xr:uid="{B9FCD267-D96D-4430-9588-794A5543020B}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AF88C014-70BB-4D22-A772-B0967617CE9A}" name="Characteristics"/>
+    <tableColumn id="5" xr3:uid="{4457753C-468F-4E61-96F6-140E2785733E}" name="Total" dataDxfId="0">
+      <calculatedColumnFormula>L2+M2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{E77EFBC4-2FC5-48C0-8D62-B5EC5FA7BEE4}" name="No injury"/>
+    <tableColumn id="3" xr3:uid="{91C6D94E-1933-429C-BCE0-7C9DCDF55E39}" name="Injury"/>
+    <tableColumn id="4" xr3:uid="{C2E37E24-0004-492F-94A8-8499B90B17D0}" name="Injury percentage" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>D2/(D2+C2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0B74B5A1-9FDB-4611-AD4D-7DDD72954C15}" name="Table3" displayName="Table3" ref="B1:G81" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="B1:G81" xr:uid="{0B74B5A1-9FDB-4611-AD4D-7DDD72954C15}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{08948CAB-3312-4E8B-AF35-0C54CEDDC472}" name=" " dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{6691FD4B-0E4F-4BA4-AB37-3675647C992B}" name="  " dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{AF9770E3-6BB5-41B7-B826-45FD31F2B77F}" name="No / N" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{19BF9E65-60DC-444F-9EDC-FF2764A26BF7}" name="Yes / N" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B51DED34-E726-42C8-BBE8-ABDD4281C70B}" name="Missing / N" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C648D58C-9845-44B5-BF0B-3643BDB13AFD}" name="Column1" dataDxfId="2" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{08948CAB-3312-4E8B-AF35-0C54CEDDC472}" name=" " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{6691FD4B-0E4F-4BA4-AB37-3675647C992B}" name="  " dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{AF9770E3-6BB5-41B7-B826-45FD31F2B77F}" name="No / N" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{19BF9E65-60DC-444F-9EDC-FF2764A26BF7}" name="Yes / N" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B51DED34-E726-42C8-BBE8-ABDD4281C70B}" name="Missing / N" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C648D58C-9845-44B5-BF0B-3643BDB13AFD}" name="Column1" dataDxfId="7" dataCellStyle="Percent">
       <calculatedColumnFormula>E2/(D2+E2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -765,15 +824,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188DCB67-12AE-45DF-A44D-30713096FD37}" name="Table22" displayName="Table22" ref="B1:F88" totalsRowShown="0" headerRowDxfId="1">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{188DCB67-12AE-45DF-A44D-30713096FD37}" name="Table22" displayName="Table22" ref="B1:F88" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B1:F88" xr:uid="{550C9C58-1674-49C5-9F24-88C2083D4C1D}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C49AA326-A7A8-4DA0-A5BC-7F7D6FCEFD06}" name="Characteristics"/>
     <tableColumn id="2" xr3:uid="{81FEC7EF-E27F-4B87-A735-13701EB2D5AD}" name="Pedal Bike"/>
     <tableColumn id="3" xr3:uid="{702D73FE-CEB4-4AB3-9A72-5F6C559ED957}" name="Ebike"/>
     <tableColumn id="5" xr3:uid="{D7F6D3E6-3921-4AD4-9C2E-48CDA5B79E22}" name="Missing"/>
-    <tableColumn id="4" xr3:uid="{CC3EE7DC-6C98-4839-A1D7-34490E0B0E98}" name="Ebike percentage" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{CC3EE7DC-6C98-4839-A1D7-34490E0B0E98}" name="Ebike percentage" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>Table22[[#This Row],[Ebike]]/SUM(Table22[[#This Row],[Pedal Bike]:[Missing]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1080,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960562B7-8673-47BC-A6F8-FC7CD6F0732B}">
   <dimension ref="B1:E103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98:E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,21 +1154,21 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f>SUM(C4:C5)</f>
@@ -1126,12 +1185,12 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>3178</v>
@@ -1146,7 +1205,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>477</v>
@@ -1161,7 +1220,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1169,7 +1228,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>2508</v>
@@ -1184,7 +1243,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>389</v>
@@ -1199,7 +1258,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>758</v>
@@ -1214,7 +1273,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1222,7 +1281,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1450</v>
@@ -1237,7 +1296,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>736</v>
@@ -1252,7 +1311,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>32</v>
@@ -1267,7 +1326,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>1437</v>
@@ -1282,7 +1341,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1290,7 +1349,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1305,7 +1364,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1320,7 +1379,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>669</v>
@@ -1335,7 +1394,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19">
         <v>609</v>
@@ -1350,7 +1409,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>275</v>
@@ -1365,7 +1424,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21">
         <v>229</v>
@@ -1380,7 +1439,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22">
         <v>105</v>
@@ -1395,7 +1454,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23">
         <v>59</v>
@@ -1410,7 +1469,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1425,7 +1484,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1690</v>
@@ -1440,7 +1499,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1448,7 +1507,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>2091</v>
@@ -1463,7 +1522,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28">
         <v>352</v>
@@ -1478,7 +1537,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>300</v>
@@ -1493,7 +1552,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30">
         <v>912</v>
@@ -1508,7 +1567,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1516,7 +1575,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>3342</v>
@@ -1531,7 +1590,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>90</v>
@@ -1546,7 +1605,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>70</v>
@@ -1561,7 +1620,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>72</v>
@@ -1576,7 +1635,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>19</v>
@@ -1591,7 +1650,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C37">
         <v>18</v>
@@ -1606,7 +1665,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38">
         <v>24</v>
@@ -1621,7 +1680,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1636,7 +1695,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1651,7 +1710,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1666,7 +1725,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>2</v>
@@ -1681,7 +1740,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1696,7 +1755,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1704,7 +1763,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>2505</v>
@@ -1719,7 +1778,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>176</v>
@@ -1734,7 +1793,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C47">
         <v>80</v>
@@ -1749,7 +1808,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>894</v>
@@ -1764,7 +1823,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -1772,7 +1831,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>2034</v>
@@ -1787,7 +1846,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C51">
         <v>534</v>
@@ -1802,7 +1861,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>489</v>
@@ -1817,7 +1876,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>205</v>
@@ -1832,7 +1891,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1847,7 +1906,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>340</v>
@@ -1862,7 +1921,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -1870,7 +1929,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>2311</v>
@@ -1885,7 +1944,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>38</v>
@@ -1900,7 +1959,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>1306</v>
@@ -1915,7 +1974,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -1923,7 +1982,7 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C61">
         <v>2014</v>
@@ -1938,7 +1997,7 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C62">
         <v>282</v>
@@ -1953,7 +2012,7 @@
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63">
         <v>1359</v>
@@ -1968,7 +2027,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -1976,7 +2035,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>2272</v>
@@ -1991,7 +2050,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66">
         <v>309</v>
@@ -2006,7 +2065,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>55</v>
@@ -2021,7 +2080,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C68">
         <v>58</v>
@@ -2036,7 +2095,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C69">
         <v>37</v>
@@ -2051,7 +2110,7 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C70">
         <v>924</v>
@@ -2066,7 +2125,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2074,7 +2133,7 @@
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C72">
         <v>2376</v>
@@ -2089,7 +2148,7 @@
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C73">
         <v>283</v>
@@ -2104,7 +2163,7 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C74">
         <v>30</v>
@@ -2119,7 +2178,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C75">
         <v>17</v>
@@ -2134,7 +2193,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>949</v>
@@ -2149,7 +2208,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2157,7 +2216,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C78">
         <v>2018</v>
@@ -2172,7 +2231,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C79">
         <v>646</v>
@@ -2187,7 +2246,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>991</v>
@@ -2202,7 +2261,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2210,7 +2269,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C82">
         <v>1318</v>
@@ -2225,7 +2284,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C83">
         <v>1085</v>
@@ -2240,7 +2299,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C84">
         <v>197</v>
@@ -2255,7 +2314,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C85">
         <v>32</v>
@@ -2270,7 +2329,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>1023</v>
@@ -2285,7 +2344,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2293,7 +2352,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C88">
         <v>2981</v>
@@ -2308,7 +2367,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C89">
         <v>29</v>
@@ -2323,7 +2382,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -2338,7 +2397,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C91">
         <v>11</v>
@@ -2353,7 +2412,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C92">
         <v>624</v>
@@ -2367,22 +2426,22 @@
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2400,10 +2459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E9AC11-8721-411F-A02E-0C8ED266D6AC}">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J1:N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,13 +2470,15 @@
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="10" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2433,375 +2494,509 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <f>D2+F2</f>
+        <f>D2+E2</f>
         <v>476</v>
       </c>
       <c r="D2">
         <v>389</v>
       </c>
       <c r="E2">
-        <v>81.72</v>
-      </c>
-      <c r="F2">
         <v>87</v>
       </c>
-      <c r="G2">
-        <v>18.28</v>
-      </c>
-      <c r="H2" s="1">
-        <f>F2/(F2+D2)</f>
+      <c r="F2" s="1">
+        <f>E2/(E2+D2)</f>
         <v>0.18277310924369747</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="10">
+        <f t="shared" ref="K2" si="0">L2+M2</f>
+        <v>476</v>
+      </c>
+      <c r="L2">
+        <v>389</v>
+      </c>
+      <c r="M2">
+        <v>87</v>
+      </c>
+      <c r="N2" s="1">
+        <f>M2/(M2+L2)</f>
+        <v>0.18277310924369747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C63" si="0">D3+F3</f>
+        <f>D3+E3</f>
         <v>359</v>
       </c>
       <c r="D3">
         <v>355</v>
       </c>
       <c r="E3">
-        <v>74.58</v>
-      </c>
-      <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>0.84</v>
-      </c>
-      <c r="H3" s="1">
-        <f>F3/(F3+D3)</f>
+      <c r="F3" s="1">
+        <f>E3/(E3+D3)</f>
         <v>1.1142061281337047E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>D4+E4</f>
         <v>117</v>
       </c>
       <c r="D4">
         <v>34</v>
       </c>
       <c r="E4">
-        <v>7.14</v>
-      </c>
-      <c r="F4">
         <v>83</v>
       </c>
-      <c r="G4">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <f>F4/(F4+D4)</f>
+      <c r="F4" s="1">
+        <f>E4/(E4+D4)</f>
         <v>0.70940170940170943</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="10">
+        <f>L4+M4</f>
+        <v>359</v>
+      </c>
+      <c r="L4">
+        <v>355</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <f>M4/(M4+L4)</f>
+        <v>1.1142061281337047E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>D5+E5</f>
         <v>404</v>
       </c>
       <c r="D5">
         <v>349</v>
       </c>
       <c r="E5">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5">
-        <v>11.55</v>
-      </c>
-      <c r="H5" s="1">
-        <f>F5/(F5+D5)</f>
+      <c r="F5" s="1">
+        <f>E5/(E5+D5)</f>
         <v>0.13613861386138615</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="10">
+        <f>L5+M5</f>
+        <v>117</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>83</v>
+      </c>
+      <c r="N5" s="1">
+        <f>M5/(M5+L5)</f>
+        <v>0.70940170940170943</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>D6+E6</f>
         <v>14</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>1.26</v>
-      </c>
-      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6">
-        <v>1.68</v>
-      </c>
-      <c r="H6" s="1">
-        <f>F6/(F6+D6)</f>
+      <c r="F6" s="1">
+        <f>E6/(E6+D6)</f>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>D7+E7</f>
         <v>17</v>
       </c>
       <c r="D7">
         <v>11</v>
       </c>
       <c r="E7">
-        <v>2.31</v>
-      </c>
-      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>1.26</v>
-      </c>
-      <c r="H7" s="1">
-        <f>F7/(F7+D7)</f>
+      <c r="F7" s="1">
+        <f>E7/(E7+D7)</f>
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="10">
+        <f>L7+M7</f>
+        <v>145</v>
+      </c>
+      <c r="L7">
+        <v>111</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7" s="1">
+        <f>M7/(M7+L7)</f>
+        <v>0.23448275862068965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>D8+E8</f>
         <v>13</v>
       </c>
       <c r="D8">
         <v>12</v>
       </c>
       <c r="E8">
-        <v>2.52</v>
-      </c>
-      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>0.21</v>
-      </c>
-      <c r="H8" s="1">
-        <f>F8/(F8+D8)</f>
+      <c r="F8" s="1">
+        <f>E8/(E8+D8)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K8" s="10">
+        <f>L8+M8</f>
+        <v>125</v>
+      </c>
+      <c r="L8">
+        <v>101</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8" s="1">
+        <f>M8/(M8+L8)</f>
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>D9+E9</f>
         <v>6</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0.63</v>
-      </c>
-      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>0.63</v>
-      </c>
-      <c r="H9" s="1">
-        <f>F9/(F9+D9)</f>
+      <c r="F9" s="1">
+        <f>E9/(E9+D9)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="10">
+        <f>L9+M9</f>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
+        <f>M9/(M9+L9)</f>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>D10+E10</f>
         <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>1.26</v>
-      </c>
-      <c r="H10" s="1">
-        <f>F10/(F10+D10)</f>
+      <c r="F10" s="1">
+        <f>E10/(E10+D10)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="10">
+        <f>L10+M10</f>
+        <v>199</v>
+      </c>
+      <c r="L10">
+        <v>174</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10" s="1">
+        <f>M10/(M10+L10)</f>
+        <v>0.12562814070351758</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>D11+E11</f>
         <v>7</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>1.26</v>
-      </c>
-      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11">
-        <v>0.21</v>
-      </c>
-      <c r="H11" s="1">
-        <f>F11/(F11+D11)</f>
+      <c r="F11" s="1">
+        <f>E11/(E11+D11)</f>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>D12+E12</f>
         <v>2</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.21</v>
-      </c>
-      <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>0.21</v>
-      </c>
-      <c r="H12" s="1">
-        <f>F12/(F12+D12)</f>
+      <c r="F12" s="1">
+        <f>E12/(E12+D12)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="10">
+        <f>L12+M12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f>D13+E13</f>
         <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <f>E13/(E13+D13)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="10">
+        <f>L13+M13</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <v>0</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>0.63</v>
-      </c>
-      <c r="H13" s="1">
-        <f>F13/(F13+D13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <f t="shared" ref="N13:N21" si="1">M13/(M13+L13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f>D14+E14</f>
         <v>3</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.21</v>
-      </c>
-      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14">
-        <v>0.42</v>
-      </c>
-      <c r="H14" s="1">
-        <f>F14/(F14+D14)</f>
+      <c r="F14" s="1">
+        <f>E14/(E14+D14)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="10">
+        <f>L14+M14</f>
+        <v>69</v>
+      </c>
+      <c r="L14">
+        <v>57</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f>D15+E15</f>
         <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15">
-        <v>0.21</v>
-      </c>
-      <c r="H15" s="1">
-        <f>F15/(F15+D15)</f>
+      <c r="F15" s="1">
+        <f>E15/(E15+D15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="10">
+        <f>L15+M15</f>
+        <v>92</v>
+      </c>
+      <c r="L15">
+        <v>76</v>
+      </c>
+      <c r="M15">
+        <v>16</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f>D16+E16</f>
         <v>0</v>
       </c>
       <c r="D16">
@@ -2810,75 +3005,108 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="10">
+        <f>L16+M16</f>
+        <v>38</v>
+      </c>
+      <c r="L16">
+        <v>29</v>
+      </c>
+      <c r="M16">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23684210526315788</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f>D17+E17</f>
         <v>449</v>
       </c>
       <c r="D17">
         <v>373</v>
       </c>
       <c r="E17">
-        <v>78.36</v>
-      </c>
-      <c r="F17">
         <v>76</v>
       </c>
-      <c r="G17">
-        <v>15.97</v>
-      </c>
-      <c r="H17" s="1">
-        <f>F17/(F17+D17)</f>
+      <c r="F17" s="1">
+        <f>E17/(E17+D17)</f>
         <v>0.16926503340757237</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="10">
+        <f>L17+M17</f>
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>21</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f>D18+E18</f>
         <v>27</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
       <c r="E18">
-        <v>3.36</v>
-      </c>
-      <c r="F18">
         <v>11</v>
       </c>
-      <c r="G18">
-        <v>2.31</v>
-      </c>
-      <c r="H18" s="1">
-        <f>F18/(F18+D18)</f>
+      <c r="F18" s="1">
+        <f>E18/(E18+D18)</f>
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="10">
+        <f>L18+M18</f>
+        <v>11</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f>D19+E19</f>
         <v>0</v>
       </c>
       <c r="D19">
@@ -2887,1258 +3115,1726 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="10">
+        <f>L19+M19</f>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f>D20+E20</f>
         <v>265</v>
       </c>
       <c r="D20">
         <v>219</v>
       </c>
       <c r="E20">
-        <v>46.01</v>
-      </c>
-      <c r="F20">
         <v>46</v>
       </c>
-      <c r="G20">
-        <v>9.66</v>
-      </c>
-      <c r="H20" s="1">
-        <f>F20/(F20+D20)</f>
+      <c r="F20" s="1">
+        <f>E20/(E20+D20)</f>
         <v>0.17358490566037735</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="10">
+        <f>L20+M20</f>
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f>D21+E21</f>
         <v>44</v>
       </c>
       <c r="D21">
         <v>33</v>
       </c>
       <c r="E21">
-        <v>6.93</v>
-      </c>
-      <c r="F21">
         <v>11</v>
       </c>
-      <c r="G21">
-        <v>2.31</v>
-      </c>
-      <c r="H21" s="1">
-        <f>F21/(F21+D21)</f>
+      <c r="F21" s="1">
+        <f>E21/(E21+D21)</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="10">
+        <f>L21+M21</f>
+        <v>226</v>
+      </c>
+      <c r="L21">
+        <v>191</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15486725663716813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f>D22+E22</f>
         <v>101</v>
       </c>
       <c r="D22">
         <v>85</v>
       </c>
       <c r="E22">
-        <v>17.86</v>
-      </c>
-      <c r="F22">
         <v>16</v>
       </c>
-      <c r="G22">
-        <v>3.36</v>
-      </c>
-      <c r="H22" s="1">
-        <f>F22/(F22+D22)</f>
+      <c r="F22" s="1">
+        <f>E22/(E22+D22)</f>
         <v>0.15841584158415842</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22" s="11"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f>D23+E23</f>
         <v>27</v>
       </c>
       <c r="D23">
         <v>23</v>
       </c>
       <c r="E23">
-        <v>4.83</v>
-      </c>
-      <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23">
-        <v>0.84</v>
-      </c>
-      <c r="H23" s="1">
-        <f>F23/(F23+D23)</f>
+      <c r="F23" s="1">
+        <f>E23/(E23+D23)</f>
         <v>0.14814814814814814</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="10">
+        <f>L23+M23</f>
+        <v>255</v>
+      </c>
+      <c r="L23">
+        <v>205</v>
+      </c>
+      <c r="M23">
+        <v>50</v>
+      </c>
+      <c r="N23" s="1">
+        <f>M23/(M23+L23)</f>
+        <v>0.19607843137254902</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f>D24+E24</f>
         <v>14</v>
       </c>
       <c r="D24">
         <v>13</v>
       </c>
       <c r="E24">
-        <v>2.73</v>
-      </c>
-      <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>0.21</v>
-      </c>
-      <c r="H24" s="1">
-        <f>F24/(F24+D24)</f>
+      <c r="F24" s="1">
+        <f>E24/(E24+D24)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="10">
+        <f>L24+M24</f>
+        <v>53</v>
+      </c>
+      <c r="L24">
+        <v>38</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24" s="1">
+        <f>M24/(M24+L24)</f>
+        <v>0.28301886792452829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f>D25+E25</f>
         <v>25</v>
       </c>
       <c r="D25">
         <v>16</v>
       </c>
       <c r="E25">
-        <v>3.36</v>
-      </c>
-      <c r="F25">
         <v>9</v>
       </c>
-      <c r="G25">
-        <v>1.89</v>
-      </c>
-      <c r="H25" s="1">
-        <f>F25/(F25+D25)</f>
+      <c r="F25" s="1">
+        <f>E25/(E25+D25)</f>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25" s="10">
+        <f>L25+M25</f>
+        <v>44</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <f>M25/(M25+L25)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f>D26+E26</f>
         <v>291</v>
       </c>
       <c r="D26">
         <v>230</v>
       </c>
       <c r="E26">
-        <v>48.32</v>
-      </c>
-      <c r="F26">
         <v>61</v>
       </c>
-      <c r="G26">
-        <v>12.82</v>
-      </c>
-      <c r="H26" s="1">
-        <f>F26/(F26+D26)</f>
+      <c r="F26" s="1">
+        <f>E26/(E26+D26)</f>
         <v>0.20962199312714777</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="10">
+        <f>L26+M26</f>
+        <v>124</v>
+      </c>
+      <c r="L26">
+        <v>106</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26" s="1">
+        <f>M26/(M26+L26)</f>
+        <v>0.14516129032258066</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f>D27+E27</f>
         <v>3</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>0.42</v>
-      </c>
-      <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27">
-        <v>0.21</v>
-      </c>
-      <c r="H27" s="1">
-        <f>F27/(F27+D27)</f>
+      <c r="F27" s="1">
+        <f>E27/(E27+D27)</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f>D28+E28</f>
         <v>182</v>
       </c>
       <c r="D28">
         <v>157</v>
       </c>
       <c r="E28">
-        <v>32.979999999999997</v>
-      </c>
-      <c r="F28">
         <v>25</v>
       </c>
-      <c r="G28">
-        <v>5.25</v>
-      </c>
-      <c r="H28" s="1">
-        <f>F28/(F28+D28)</f>
+      <c r="F28" s="1">
+        <f>E28/(E28+D28)</f>
         <v>0.13736263736263737</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>8</v>
+      </c>
+      <c r="K28" s="10">
+        <f>L28+M28</f>
+        <v>404</v>
+      </c>
+      <c r="L28">
+        <v>349</v>
+      </c>
+      <c r="M28">
+        <v>55</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28:N38" si="2">M28/(M28+L28)</f>
+        <v>0.13613861386138615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f>D29+E29</f>
         <v>252</v>
       </c>
       <c r="D29">
         <v>193</v>
       </c>
       <c r="E29">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="F29">
         <v>59</v>
       </c>
-      <c r="G29">
-        <v>12.39</v>
-      </c>
-      <c r="H29" s="1">
-        <f>F29/(F29+D29)</f>
+      <c r="F29" s="1">
+        <f>E29/(E29+D29)</f>
         <v>0.23412698412698413</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="10">
+        <f>L29+M29</f>
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>8</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f>D30+E30</f>
         <v>37</v>
       </c>
       <c r="D30">
         <v>32</v>
       </c>
       <c r="E30">
-        <v>6.72</v>
-      </c>
-      <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30">
-        <v>1.05</v>
-      </c>
-      <c r="H30" s="1">
-        <f>F30/(F30+D30)</f>
+      <c r="F30" s="1">
+        <f>E30/(E30+D30)</f>
         <v>0.13513513513513514</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="10">
+        <f>L30+M30</f>
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30">
+        <v>6</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.35294117647058826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f>D31+E31</f>
         <v>187</v>
       </c>
       <c r="D31">
         <v>164</v>
       </c>
       <c r="E31">
-        <v>34.450000000000003</v>
-      </c>
-      <c r="F31">
         <v>23</v>
       </c>
-      <c r="G31">
-        <v>4.83</v>
-      </c>
-      <c r="H31" s="1">
-        <f>F31/(F31+D31)</f>
+      <c r="F31" s="1">
+        <f>E31/(E31+D31)</f>
         <v>0.12299465240641712</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="10">
+        <f>L31+M31</f>
+        <v>13</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f>D32+E32</f>
         <v>293</v>
       </c>
       <c r="D32">
         <v>238</v>
       </c>
       <c r="E32">
-        <v>50</v>
-      </c>
-      <c r="F32">
         <v>55</v>
       </c>
-      <c r="G32">
-        <v>11.55</v>
-      </c>
-      <c r="H32" s="1">
-        <f>F32/(F32+D32)</f>
+      <c r="F32" s="1">
+        <f>E32/(E32+D32)</f>
         <v>0.18771331058020477</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="10">
+        <f>L32+M32</f>
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f>D33+E33</f>
         <v>39</v>
       </c>
       <c r="D33">
         <v>29</v>
       </c>
       <c r="E33">
-        <v>6.09</v>
-      </c>
-      <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33">
-        <v>2.1</v>
-      </c>
-      <c r="H33" s="1">
-        <f>F33/(F33+D33)</f>
+      <c r="F33" s="1">
+        <f>E33/(E33+D33)</f>
         <v>0.25641025641025639</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="10">
+        <f>L33+M33</f>
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>6</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f>D34+E34</f>
         <v>7</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
       <c r="E34">
-        <v>1.05</v>
-      </c>
-      <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>0.42</v>
-      </c>
-      <c r="H34" s="1">
-        <f>F34/(F34+D34)</f>
+      <c r="F34" s="1">
+        <f>E34/(E34+D34)</f>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="10">
+        <f>L34+M34</f>
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f>D35+E35</f>
         <v>10</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>1.89</v>
-      </c>
-      <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0.21</v>
-      </c>
-      <c r="H35" s="1">
-        <f>F35/(F35+D35)</f>
+      <c r="F35" s="1">
+        <f>E35/(E35+D35)</f>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+      <c r="K35" s="10">
+        <f>L35+M35</f>
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f>D36+E36</f>
         <v>7</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36">
-        <v>0.84</v>
-      </c>
-      <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36">
-        <v>0.63</v>
-      </c>
-      <c r="H36" s="1">
-        <f>F36/(F36+D36)</f>
+      <c r="F36" s="1">
+        <f>E36/(E36+D36)</f>
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="10">
+        <f>L36+M36</f>
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f>D37+E37</f>
         <v>120</v>
       </c>
       <c r="D37">
         <v>104</v>
       </c>
       <c r="E37">
-        <v>21.85</v>
-      </c>
-      <c r="F37">
         <v>16</v>
       </c>
-      <c r="G37">
-        <v>3.36</v>
-      </c>
-      <c r="H37" s="1">
-        <f>F37/(F37+D37)</f>
+      <c r="F37" s="1">
+        <f>E37/(E37+D37)</f>
         <v>0.13333333333333333</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="10">
+        <f>L37+M37</f>
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f>D38+E38</f>
         <v>291</v>
       </c>
       <c r="D38">
         <v>231</v>
       </c>
       <c r="E38">
-        <v>48.53</v>
-      </c>
-      <c r="F38">
         <v>60</v>
       </c>
-      <c r="G38">
-        <v>12.61</v>
-      </c>
-      <c r="H38" s="1">
-        <f>F38/(F38+D38)</f>
+      <c r="F38" s="1">
+        <f>E38/(E38+D38)</f>
         <v>0.20618556701030927</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="10">
+        <f>L38+M38</f>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f>D39+E39</f>
         <v>58</v>
       </c>
       <c r="D39">
         <v>51</v>
       </c>
       <c r="E39">
-        <v>10.71</v>
-      </c>
-      <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39">
-        <v>1.47</v>
-      </c>
-      <c r="H39" s="1">
-        <f>F39/(F39+D39)</f>
+      <c r="F39" s="1">
+        <f>E39/(E39+D39)</f>
         <v>0.1206896551724138</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="10">
+        <f>L39+M39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f>D40+E40</f>
         <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.21</v>
-      </c>
-      <c r="F40">
         <v>0</v>
       </c>
-      <c r="G40">
+      <c r="F40" s="1">
+        <f>E40/(E40+D40)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="1">
-        <f>F40/(F40+D40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="11"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f>D41+E41</f>
         <v>3</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41">
-        <v>0.42</v>
-      </c>
-      <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41">
-        <v>0.21</v>
-      </c>
-      <c r="H41" s="1">
-        <f>F41/(F41+D41)</f>
+      <c r="F41" s="1">
+        <f>E41/(E41+D41)</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K41" s="10">
+        <f>L41+M41</f>
+        <v>318</v>
+      </c>
+      <c r="L41">
+        <v>261</v>
+      </c>
+      <c r="M41">
+        <v>57</v>
+      </c>
+      <c r="N41" s="1">
+        <f>M41/(M41+L41)</f>
+        <v>0.17924528301886791</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f>D42+E42</f>
         <v>123</v>
       </c>
       <c r="D42">
         <v>104</v>
       </c>
       <c r="E42">
-        <v>21.85</v>
-      </c>
-      <c r="F42">
         <v>19</v>
       </c>
-      <c r="G42">
-        <v>3.99</v>
-      </c>
-      <c r="H42" s="1">
-        <f>F42/(F42+D42)</f>
+      <c r="F42" s="1">
+        <f>E42/(E42+D42)</f>
         <v>0.15447154471544716</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="10">
+        <f>L42+M42</f>
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42" s="1">
+        <f>M42/(M42+L42)</f>
+        <v>0.34482758620689657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f>D43+E43</f>
         <v>255</v>
       </c>
       <c r="D43">
         <v>210</v>
       </c>
       <c r="E43">
-        <v>44.12</v>
-      </c>
-      <c r="F43">
         <v>45</v>
       </c>
-      <c r="G43">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="H43" s="1">
-        <f>F43/(F43+D43)</f>
+      <c r="F43" s="1">
+        <f>E43/(E43+D43)</f>
         <v>0.17647058823529413</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="10">
+        <f>L43+M43</f>
+        <v>13</v>
+      </c>
+      <c r="L43">
+        <v>9</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43" s="1">
+        <f>M43/(M43+L43)</f>
+        <v>0.30769230769230771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f>D44+E44</f>
         <v>86</v>
       </c>
       <c r="D44">
         <v>65</v>
       </c>
       <c r="E44">
-        <v>13.66</v>
-      </c>
-      <c r="F44">
         <v>21</v>
       </c>
-      <c r="G44">
-        <v>4.41</v>
-      </c>
-      <c r="H44" s="1">
-        <f>F44/(F44+D44)</f>
+      <c r="F44" s="1">
+        <f>E44/(E44+D44)</f>
         <v>0.2441860465116279</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="10">
+        <f>L44+M44</f>
+        <v>116</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+      <c r="M44">
+        <v>16</v>
+      </c>
+      <c r="N44" s="1">
+        <f>M44/(M44+L44)</f>
+        <v>0.13793103448275862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f>D45+E45</f>
         <v>135</v>
       </c>
       <c r="D45">
         <v>114</v>
       </c>
       <c r="E45">
-        <v>23.95</v>
-      </c>
-      <c r="F45">
         <v>21</v>
       </c>
-      <c r="G45">
-        <v>4.41</v>
-      </c>
-      <c r="H45" s="1">
-        <f>F45/(F45+D45)</f>
+      <c r="F45" s="1">
+        <f>E45/(E45+D45)</f>
         <v>0.15555555555555556</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="10">
+        <f>L45+M45</f>
+        <v>291</v>
+      </c>
+      <c r="L45">
+        <v>231</v>
+      </c>
+      <c r="M45">
+        <v>60</v>
+      </c>
+      <c r="N45" s="1">
+        <f>M45/(M45+L45)</f>
+        <v>0.20618556701030927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f>D46+E46</f>
         <v>233</v>
       </c>
       <c r="D46">
         <v>194</v>
       </c>
       <c r="E46">
-        <v>40.76</v>
-      </c>
-      <c r="F46">
         <v>39</v>
       </c>
-      <c r="G46">
-        <v>8.19</v>
-      </c>
-      <c r="H46" s="1">
-        <f>F46/(F46+D46)</f>
+      <c r="F46" s="1">
+        <f>E46/(E46+D46)</f>
         <v>0.16738197424892703</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="10">
+        <f>L46+M46</f>
+        <v>58</v>
+      </c>
+      <c r="L46">
+        <v>51</v>
+      </c>
+      <c r="M46">
+        <v>7</v>
+      </c>
+      <c r="N46" s="1">
+        <f>M46/(M46+L46)</f>
+        <v>0.1206896551724138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f>D47+E47</f>
         <v>89</v>
       </c>
       <c r="D47">
         <v>72</v>
       </c>
       <c r="E47">
-        <v>15.13</v>
-      </c>
-      <c r="F47">
         <v>17</v>
       </c>
-      <c r="G47">
-        <v>3.57</v>
-      </c>
-      <c r="H47" s="1">
-        <f>F47/(F47+D47)</f>
+      <c r="F47" s="1">
+        <f>E47/(E47+D47)</f>
         <v>0.19101123595505617</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="10">
+        <f>L47+M47</f>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <f>M47/(M47+L47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f>D48+E48</f>
         <v>13</v>
       </c>
       <c r="D48">
         <v>12</v>
       </c>
       <c r="E48">
-        <v>2.52</v>
-      </c>
-      <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48">
-        <v>0.21</v>
-      </c>
-      <c r="H48" s="1">
-        <f>F48/(F48+D48)</f>
+      <c r="F48" s="1">
+        <f>E48/(E48+D48)</f>
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>44</v>
+      </c>
+      <c r="K48" s="10">
+        <f>L48+M48</f>
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <f>M48/(M48+L48)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f>D49+E49</f>
         <v>4</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.21</v>
-      </c>
-      <c r="F49">
         <v>3</v>
       </c>
-      <c r="G49">
-        <v>0.63</v>
-      </c>
-      <c r="H49" s="1">
-        <f>F49/(F49+D49)</f>
+      <c r="F49" s="1">
+        <f>E49/(E49+D49)</f>
         <v>0.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="10">
+        <f>L49+M49</f>
+        <v>123</v>
+      </c>
+      <c r="L49">
+        <v>104</v>
+      </c>
+      <c r="M49">
+        <v>19</v>
+      </c>
+      <c r="N49" s="1">
+        <f>M49/(M49+L49)</f>
+        <v>0.15447154471544716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f>D50+E50</f>
         <v>137</v>
       </c>
       <c r="D50">
         <v>110</v>
       </c>
       <c r="E50">
-        <v>23.11</v>
-      </c>
-      <c r="F50">
         <v>27</v>
       </c>
-      <c r="G50">
-        <v>5.67</v>
-      </c>
-      <c r="H50" s="1">
-        <f>F50/(F50+D50)</f>
+      <c r="F50" s="1">
+        <f>E50/(E50+D50)</f>
         <v>0.19708029197080293</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f>D51+E51</f>
         <v>255</v>
       </c>
       <c r="D51">
         <v>205</v>
       </c>
       <c r="E51">
-        <v>43.07</v>
-      </c>
-      <c r="F51">
         <v>50</v>
       </c>
-      <c r="G51">
-        <v>10.5</v>
-      </c>
-      <c r="H51" s="1">
-        <f>F51/(F51+D51)</f>
+      <c r="F51" s="1">
+        <f>E51/(E51+D51)</f>
         <v>0.19607843137254902</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="10">
+        <f>L51+M51</f>
+        <v>255</v>
+      </c>
+      <c r="L51">
+        <v>210</v>
+      </c>
+      <c r="M51">
+        <v>45</v>
+      </c>
+      <c r="N51" s="1">
+        <f>M51/(M51+L51)</f>
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f>D52+E52</f>
         <v>53</v>
       </c>
       <c r="D52">
         <v>38</v>
       </c>
       <c r="E52">
-        <v>7.98</v>
-      </c>
-      <c r="F52">
         <v>15</v>
       </c>
-      <c r="G52">
-        <v>3.15</v>
-      </c>
-      <c r="H52" s="1">
-        <f>F52/(F52+D52)</f>
+      <c r="F52" s="1">
+        <f>E52/(E52+D52)</f>
         <v>0.28301886792452829</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" s="10">
+        <f>L52+M52</f>
+        <v>86</v>
+      </c>
+      <c r="L52">
+        <v>65</v>
+      </c>
+      <c r="M52">
+        <v>21</v>
+      </c>
+      <c r="N52" s="1">
+        <f>M52/(M52+L52)</f>
+        <v>0.2441860465116279</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f>D53+E53</f>
         <v>44</v>
       </c>
       <c r="D53">
         <v>40</v>
       </c>
       <c r="E53">
-        <v>8.4</v>
-      </c>
-      <c r="F53">
         <v>4</v>
       </c>
-      <c r="G53">
-        <v>0.84</v>
-      </c>
-      <c r="H53" s="1">
-        <f>F53/(F53+D53)</f>
+      <c r="F53" s="1">
+        <f>E53/(E53+D53)</f>
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>23</v>
+      </c>
+      <c r="K53" s="10">
+        <f>L53+M53</f>
+        <v>135</v>
+      </c>
+      <c r="L53">
+        <v>114</v>
+      </c>
+      <c r="M53">
+        <v>21</v>
+      </c>
+      <c r="N53" s="1">
+        <f>M53/(M53+L53)</f>
+        <v>0.15555555555555556</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f>D54+E54</f>
         <v>124</v>
       </c>
       <c r="D54">
         <v>106</v>
       </c>
       <c r="E54">
-        <v>22.27</v>
-      </c>
-      <c r="F54">
         <v>18</v>
       </c>
-      <c r="G54">
-        <v>3.78</v>
-      </c>
-      <c r="H54" s="1">
-        <f>F54/(F54+D54)</f>
+      <c r="F54" s="1">
+        <f>E54/(E54+D54)</f>
         <v>0.14516129032258066</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J54" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f>D55+E55</f>
         <v>460</v>
       </c>
       <c r="D55">
         <v>381</v>
       </c>
       <c r="E55">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="F55">
         <v>79</v>
       </c>
-      <c r="G55">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="H55" s="1">
-        <f>F55/(F55+D55)</f>
+      <c r="F55" s="1">
+        <f>E55/(E55+D55)</f>
         <v>0.17173913043478262</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>47</v>
+      </c>
+      <c r="K55" s="10">
+        <f>L55+M55</f>
+        <v>233</v>
+      </c>
+      <c r="L55">
+        <v>194</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55" s="1">
+        <f>M55/(M55+L55)</f>
+        <v>0.16738197424892703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f>D56+E56</f>
         <v>9</v>
       </c>
       <c r="D56">
         <v>5</v>
       </c>
       <c r="E56">
-        <v>1.05</v>
-      </c>
-      <c r="F56">
         <v>4</v>
       </c>
-      <c r="G56">
-        <v>0.84</v>
-      </c>
-      <c r="H56" s="1">
-        <f>F56/(F56+D56)</f>
+      <c r="F56" s="1">
+        <f>E56/(E56+D56)</f>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>48</v>
+      </c>
+      <c r="K56" s="10">
+        <f>L56+M56</f>
+        <v>89</v>
+      </c>
+      <c r="L56">
+        <v>72</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56" s="1">
+        <f>M56/(M56+L56)</f>
+        <v>0.19101123595505617</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f>D57+E57</f>
         <v>3</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.21</v>
-      </c>
-      <c r="F57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>0.42</v>
-      </c>
-      <c r="H57" s="1">
-        <f>F57/(F57+D57)</f>
+      <c r="F57" s="1">
+        <f>E57/(E57+D57)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="10">
+        <f>L57+M57</f>
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <f>M57/(M57+L57)</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f>D58+E58</f>
         <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0.21</v>
-      </c>
-      <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
+      <c r="F58" s="1">
+        <f>E58/(E58+D58)</f>
         <v>0</v>
       </c>
-      <c r="H58" s="1">
-        <f>F58/(F58+D58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>50</v>
+      </c>
+      <c r="K58" s="10">
+        <f>L58+M58</f>
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58" s="1">
+        <f>M58/(M58+L58)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f>D59+E59</f>
         <v>3</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0.21</v>
-      </c>
-      <c r="F59">
         <v>2</v>
       </c>
-      <c r="G59">
-        <v>0.42</v>
-      </c>
-      <c r="H59" s="1">
-        <f>F59/(F59+D59)</f>
+      <c r="F59" s="1">
+        <f>E59/(E59+D59)</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>23</v>
+      </c>
+      <c r="K59" s="10">
+        <f>L59+M59</f>
+        <v>137</v>
+      </c>
+      <c r="L59">
+        <v>110</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59" s="1">
+        <f>M59/(M59+L59)</f>
+        <v>0.19708029197080293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f>D60+E60</f>
         <v>318</v>
       </c>
       <c r="D60">
         <v>261</v>
       </c>
       <c r="E60">
-        <v>54.83</v>
-      </c>
-      <c r="F60">
         <v>57</v>
       </c>
-      <c r="G60">
-        <v>11.97</v>
-      </c>
-      <c r="H60" s="1">
-        <f>F60/(F60+D60)</f>
+      <c r="F60" s="1">
+        <f>E60/(E60+D60)</f>
         <v>0.17924528301886791</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f>D61+E61</f>
         <v>29</v>
       </c>
       <c r="D61">
         <v>19</v>
       </c>
       <c r="E61">
-        <v>3.99</v>
-      </c>
-      <c r="F61">
         <v>10</v>
       </c>
-      <c r="G61">
-        <v>2.1</v>
-      </c>
-      <c r="H61" s="1">
-        <f>F61/(F61+D61)</f>
+      <c r="F61" s="1">
+        <f>E61/(E61+D61)</f>
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="10">
+        <f>L61+M61</f>
+        <v>460</v>
+      </c>
+      <c r="L61">
+        <v>381</v>
+      </c>
+      <c r="M61">
+        <v>79</v>
+      </c>
+      <c r="N61" s="1">
+        <f>M61/(M61+L61)</f>
+        <v>0.17173913043478262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f>D62+E62</f>
         <v>13</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>1.89</v>
-      </c>
-      <c r="F62">
         <v>4</v>
       </c>
-      <c r="G62">
-        <v>0.84</v>
-      </c>
-      <c r="H62" s="1">
-        <f>F62/(F62+D62)</f>
+      <c r="F62" s="1">
+        <f>E62/(E62+D62)</f>
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="10">
+        <f>L62+M62</f>
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>5</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62" s="1">
+        <f>M62/(M62+L62)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f>D63+E63</f>
         <v>116</v>
       </c>
       <c r="D63">
         <v>100</v>
       </c>
       <c r="E63">
-        <v>21.01</v>
-      </c>
-      <c r="F63">
         <v>16</v>
       </c>
-      <c r="G63">
-        <v>3.36</v>
-      </c>
-      <c r="H63" s="1">
-        <f>F63/(F63+D63)</f>
+      <c r="F63" s="1">
+        <f>E63/(E63+D63)</f>
         <v>0.13793103448275862</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="10">
+        <f>L63+M63</f>
+        <v>3</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>2</v>
+      </c>
+      <c r="N63" s="1">
+        <f>M63/(M63+L63)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C67" si="1">D64+F64</f>
+        <f>D64+E64</f>
         <v>145</v>
       </c>
       <c r="D64">
         <v>111</v>
       </c>
       <c r="E64">
-        <v>23.32</v>
-      </c>
-      <c r="F64">
         <v>34</v>
       </c>
-      <c r="G64">
-        <v>7.14</v>
-      </c>
-      <c r="H64" s="1">
-        <f>F64/(F64+D64)</f>
+      <c r="F64" s="1">
+        <f>E64/(E64+D64)</f>
         <v>0.23448275862068965</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="10">
+        <f>L64+M64</f>
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <f>M64/(M64+L64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f>D65+E65</f>
         <v>125</v>
       </c>
       <c r="D65">
         <v>101</v>
       </c>
       <c r="E65">
-        <v>21.22</v>
-      </c>
-      <c r="F65">
         <v>24</v>
       </c>
-      <c r="G65">
-        <v>5.04</v>
-      </c>
-      <c r="H65" s="1">
-        <f>F65/(F65+D65)</f>
+      <c r="F65" s="1">
+        <f>E65/(E65+D65)</f>
         <v>0.192</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>23</v>
+      </c>
+      <c r="K65" s="10">
+        <f>L65+M65</f>
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65" s="1">
+        <f>M65/(M65+L65)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f>D66+E66</f>
         <v>7</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66">
-        <v>0.63</v>
-      </c>
-      <c r="F66">
         <v>4</v>
       </c>
-      <c r="G66">
-        <v>0.84</v>
-      </c>
-      <c r="H66" s="1">
-        <f>F66/(F66+D66)</f>
+      <c r="F66" s="1">
+        <f>E66/(E66+D66)</f>
         <v>0.5714285714285714</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K66" s="11"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f>D67+E67</f>
         <v>199</v>
       </c>
       <c r="D67">
         <v>174</v>
       </c>
       <c r="E67">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="F67">
         <v>25</v>
       </c>
-      <c r="G67">
-        <v>5.25</v>
-      </c>
-      <c r="H67" s="1">
-        <f>F67/(F67+D67)</f>
+      <c r="F67" s="1">
+        <f>E67/(E67+D67)</f>
         <v>0.12562814070351758</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="10">
+        <f>L67+M67</f>
+        <v>449</v>
+      </c>
+      <c r="L67">
+        <v>373</v>
+      </c>
+      <c r="M67">
+        <v>76</v>
+      </c>
+      <c r="N67" s="1">
+        <f>M67/(M67+L67)</f>
+        <v>0.16926503340757237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C77" si="2">D68+F68</f>
+        <f>D68+E68</f>
         <v>0</v>
       </c>
       <c r="D68">
@@ -4147,243 +4843,585 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="10">
+        <f>L68+M68</f>
+        <v>27</v>
+      </c>
+      <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68">
+        <v>11</v>
+      </c>
+      <c r="N68" s="1">
+        <f>M68/(M68+L68)</f>
+        <v>0.40740740740740738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f>D69+E69</f>
         <v>2</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>0.42</v>
-      </c>
-      <c r="F69">
         <v>0</v>
       </c>
-      <c r="G69">
+      <c r="F69" s="1">
+        <f>E69/(E69+D69)</f>
         <v>0</v>
       </c>
-      <c r="H69" s="1">
-        <f>F69/(F69+D69)</f>
+      <c r="J69" t="s">
+        <v>23</v>
+      </c>
+      <c r="K69" s="10">
+        <f>L69+M69</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f>D70+E70</f>
         <v>69</v>
       </c>
       <c r="D70">
         <v>57</v>
       </c>
       <c r="E70">
-        <v>11.97</v>
-      </c>
-      <c r="F70">
         <v>12</v>
       </c>
-      <c r="G70">
-        <v>2.52</v>
-      </c>
-      <c r="H70" s="1">
-        <f>F70/(F70+D70)</f>
+      <c r="F70" s="1">
+        <f>E70/(E70+D70)</f>
         <v>0.17391304347826086</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f>D71+E71</f>
         <v>92</v>
       </c>
       <c r="D71">
         <v>76</v>
       </c>
       <c r="E71">
-        <v>15.97</v>
-      </c>
-      <c r="F71">
         <v>16</v>
       </c>
-      <c r="G71">
-        <v>3.36</v>
-      </c>
-      <c r="H71" s="1">
-        <f>F71/(F71+D71)</f>
+      <c r="F71" s="1">
+        <f>E71/(E71+D71)</f>
         <v>0.17391304347826086</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="10">
+        <f>L71+M71</f>
+        <v>265</v>
+      </c>
+      <c r="L71">
+        <v>219</v>
+      </c>
+      <c r="M71">
+        <v>46</v>
+      </c>
+      <c r="N71" s="1">
+        <f t="shared" ref="N71:N76" si="3">M71/(M71+L71)</f>
+        <v>0.17358490566037735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f>D72+E72</f>
         <v>38</v>
       </c>
       <c r="D72">
         <v>29</v>
       </c>
       <c r="E72">
-        <v>6.09</v>
-      </c>
-      <c r="F72">
         <v>9</v>
       </c>
-      <c r="G72">
-        <v>1.89</v>
-      </c>
-      <c r="H72" s="1">
-        <f>F72/(F72+D72)</f>
+      <c r="F72" s="1">
+        <f>E72/(E72+D72)</f>
         <v>0.23684210526315788</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K72" s="10">
+        <f>L72+M72</f>
+        <v>44</v>
+      </c>
+      <c r="L72">
+        <v>33</v>
+      </c>
+      <c r="M72">
+        <v>11</v>
+      </c>
+      <c r="N72" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f>D73+E73</f>
         <v>30</v>
       </c>
       <c r="D73">
         <v>21</v>
       </c>
       <c r="E73">
-        <v>4.41</v>
-      </c>
-      <c r="F73">
         <v>9</v>
       </c>
-      <c r="G73">
-        <v>1.89</v>
-      </c>
-      <c r="H73" s="1">
-        <f>F73/(F73+D73)</f>
+      <c r="F73" s="1">
+        <f>E73/(E73+D73)</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="10">
+        <f>L73+M73</f>
+        <v>101</v>
+      </c>
+      <c r="L73">
+        <v>85</v>
+      </c>
+      <c r="M73">
+        <v>16</v>
+      </c>
+      <c r="N73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.15841584158415842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f>D74+E74</f>
         <v>11</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
       <c r="E74">
-        <v>1.47</v>
-      </c>
-      <c r="F74">
         <v>4</v>
       </c>
-      <c r="G74">
-        <v>0.84</v>
-      </c>
-      <c r="H74" s="1">
-        <f>F74/(F74+D74)</f>
+      <c r="F74" s="1">
+        <f>E74/(E74+D74)</f>
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>28</v>
+      </c>
+      <c r="K74" s="10">
+        <f>L74+M74</f>
+        <v>27</v>
+      </c>
+      <c r="L74">
+        <v>23</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14814814814814814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f>D75+E75</f>
         <v>5</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75">
-        <v>0.63</v>
-      </c>
-      <c r="F75">
         <v>2</v>
       </c>
-      <c r="G75">
-        <v>0.42</v>
-      </c>
-      <c r="H75" s="1">
-        <f>F75/(F75+D75)</f>
+      <c r="F75" s="1">
+        <f>E75/(E75+D75)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" s="10">
+        <f>L75+M75</f>
+        <v>14</v>
+      </c>
+      <c r="L75">
+        <v>13</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f>D76+E76</f>
         <v>3</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76">
-        <v>0.63</v>
-      </c>
-      <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76">
+      <c r="F76" s="1">
+        <f>E76/(E76+D76)</f>
         <v>0</v>
       </c>
-      <c r="H76" s="1">
-        <f>F76/(F76+D76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" s="10">
+        <f>L76+M76</f>
+        <v>25</v>
+      </c>
+      <c r="L76">
+        <v>16</v>
+      </c>
+      <c r="M76">
+        <v>9</v>
+      </c>
+      <c r="N76" s="1">
+        <f t="shared" si="3"/>
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f>D77+E77</f>
         <v>226</v>
       </c>
       <c r="D77">
         <v>191</v>
       </c>
       <c r="E77">
-        <v>40.130000000000003</v>
-      </c>
-      <c r="F77">
         <v>35</v>
       </c>
-      <c r="G77">
-        <v>7.35</v>
-      </c>
-      <c r="H77" s="1">
-        <f>F77/(F77+D77)</f>
+      <c r="F77" s="1">
+        <f>E77/(E77+D77)</f>
         <v>0.15486725663716813</v>
       </c>
+      <c r="J77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="11"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J78" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="10">
+        <f>L78+M78</f>
+        <v>291</v>
+      </c>
+      <c r="L78">
+        <v>230</v>
+      </c>
+      <c r="M78">
+        <v>61</v>
+      </c>
+      <c r="N78" s="1">
+        <f>M78/(M78+L78)</f>
+        <v>0.20962199312714777</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>32</v>
+      </c>
+      <c r="K79" s="10">
+        <f>L79+M79</f>
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1">
+        <f>M79/(M79+L79)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J80" t="s">
+        <v>23</v>
+      </c>
+      <c r="K80" s="10">
+        <f>L80+M80</f>
+        <v>182</v>
+      </c>
+      <c r="L80">
+        <v>157</v>
+      </c>
+      <c r="M80">
+        <v>25</v>
+      </c>
+      <c r="N80" s="1">
+        <f>M80/(M80+L80)</f>
+        <v>0.13736263736263737</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" s="11"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J82" t="s">
+        <v>31</v>
+      </c>
+      <c r="K82" s="10">
+        <f>L82+M82</f>
+        <v>252</v>
+      </c>
+      <c r="L82">
+        <v>193</v>
+      </c>
+      <c r="M82">
+        <v>59</v>
+      </c>
+      <c r="N82" s="1">
+        <f>M82/(M82+L82)</f>
+        <v>0.23412698412698413</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K83" s="10">
+        <f>L83+M83</f>
+        <v>37</v>
+      </c>
+      <c r="L83">
+        <v>32</v>
+      </c>
+      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="N83" s="1">
+        <f>M83/(M83+L83)</f>
+        <v>0.13513513513513514</v>
+      </c>
+    </row>
+    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="10">
+        <f>L84+M84</f>
+        <v>187</v>
+      </c>
+      <c r="L84">
+        <v>164</v>
+      </c>
+      <c r="M84">
+        <v>23</v>
+      </c>
+      <c r="N84" s="1">
+        <f>M84/(M84+L84)</f>
+        <v>0.12299465240641712</v>
+      </c>
+    </row>
+    <row r="85" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J85" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="11"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J86" t="s">
+        <v>35</v>
+      </c>
+      <c r="K86" s="10">
+        <f>L86+M86</f>
+        <v>293</v>
+      </c>
+      <c r="L86">
+        <v>238</v>
+      </c>
+      <c r="M86">
+        <v>55</v>
+      </c>
+      <c r="N86" s="1">
+        <f t="shared" ref="N86:N91" si="4">M86/(M86+L86)</f>
+        <v>0.18771331058020477</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>36</v>
+      </c>
+      <c r="K87" s="10">
+        <f>L87+M87</f>
+        <v>39</v>
+      </c>
+      <c r="L87">
+        <v>29</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="N87" s="1">
+        <f t="shared" si="4"/>
+        <v>0.25641025641025639</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>37</v>
+      </c>
+      <c r="K88" s="10">
+        <f>L88+M88</f>
+        <v>7</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J89" t="s">
+        <v>38</v>
+      </c>
+      <c r="K89" s="10">
+        <f>L89+M89</f>
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <v>9</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>39</v>
+      </c>
+      <c r="K90" s="10">
+        <f>L90+M90</f>
+        <v>7</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>3</v>
+      </c>
+      <c r="N90" s="1">
+        <f t="shared" si="4"/>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="10">
+        <f>L91+M91</f>
+        <v>120</v>
+      </c>
+      <c r="L91">
+        <v>104</v>
+      </c>
+      <c r="M91">
+        <v>16</v>
+      </c>
+      <c r="N91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.13333333333333333</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q6:U6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4391,8 +5429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B522B5-1877-42DA-B326-FFD7AA1CAB9B}">
   <dimension ref="B1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:G58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="B1:G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4410,24 +5448,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" t="s">
-        <v>96</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2237</v>
@@ -4445,7 +5483,7 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>978</v>
@@ -4457,16 +5495,16 @@
         <v>541</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G66" si="0">E3/(D3+E3)</f>
+        <f>E3/(D3+E3)</f>
         <v>0.10684931506849316</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4">
         <v>2809</v>
@@ -4478,13 +5516,13 @@
         <v>1035</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
+        <f>E4/(D4+E4)</f>
         <v>0.12573918456271396</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>116</v>
@@ -4496,13 +5534,13 @@
         <v>49</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="0"/>
+        <f>E5/(D5+E5)</f>
         <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>71</v>
@@ -4514,13 +5552,13 @@
         <v>25</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
+        <f>E6/(D6+E6)</f>
         <v>0.19318181818181818</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>63</v>
@@ -4532,13 +5570,13 @@
         <v>13</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f>E7/(D7+E7)</f>
         <v>0.17105263157894737</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>38</v>
@@ -4550,13 +5588,13 @@
         <v>16</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="0"/>
+        <f>E8/(D8+E8)</f>
         <v>0.13636363636363635</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>28</v>
@@ -4568,13 +5606,13 @@
         <v>24</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
+        <f>E9/(D9+E9)</f>
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>27</v>
@@ -4586,13 +5624,13 @@
         <v>3</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="0"/>
+        <f>E10/(D10+E10)</f>
         <v>0.20588235294117646</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>27</v>
@@ -4604,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="0"/>
+        <f>E11/(D11+E11)</f>
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>16</v>
@@ -4622,13 +5660,13 @@
         <v>3</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="0"/>
+        <f>E12/(D12+E12)</f>
         <v>0.15789473684210525</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>7</v>
@@ -4640,13 +5678,13 @@
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="0"/>
+        <f>E13/(D13+E13)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>7</v>
@@ -4658,13 +5696,13 @@
         <v>1</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
+        <f>E14/(D14+E14)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -4676,16 +5714,16 @@
         <v>2</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
+        <f>E15/(D15+E15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>2894</v>
@@ -4697,13 +5735,13 @@
         <v>503</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
+        <f>E16/(D16+E16)</f>
         <v>0.13431049955130123</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>320</v>
@@ -4715,13 +5753,13 @@
         <v>353</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="0"/>
+        <f>E17/(D17+E17)</f>
         <v>7.7809798270893377E-2</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4733,16 +5771,16 @@
         <v>323</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="0"/>
+        <f>E18/(D18+E18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1736</v>
@@ -4754,13 +5792,13 @@
         <v>522</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="0"/>
+        <f>E19/(D19+E19)</f>
         <v>0.13243378310844578</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>575</v>
@@ -4772,13 +5810,13 @@
         <v>106</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="0"/>
+        <f>E20/(D20+E20)</f>
         <v>7.1082390953150248E-2</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>389</v>
@@ -4790,13 +5828,13 @@
         <v>75</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
+        <f>E21/(D21+E21)</f>
         <v>0.20612244897959184</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>185</v>
@@ -4808,13 +5846,13 @@
         <v>45</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="0"/>
+        <f>E22/(D22+E22)</f>
         <v>0.12735849056603774</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23">
         <v>37</v>
@@ -4826,13 +5864,13 @@
         <v>12</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="0"/>
+        <f>E23/(D23+E23)</f>
         <v>0.27450980392156865</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>293</v>
@@ -4844,16 +5882,16 @@
         <v>419</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
+        <f>E24/(D24+E24)</f>
         <v>7.8616352201257858E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>2252</v>
@@ -4865,13 +5903,13 @@
         <v>365</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
+        <f>E25/(D25+E25)</f>
         <v>0.11443177349587103</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>43</v>
@@ -4883,13 +5921,13 @@
         <v>4</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="0"/>
+        <f>E26/(D26+E26)</f>
         <v>6.5217391304347824E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>920</v>
@@ -4901,16 +5939,16 @@
         <v>810</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="0"/>
+        <f>E27/(D27+E27)</f>
         <v>0.16515426497277677</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>2000</v>
@@ -4922,13 +5960,13 @@
         <v>302</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="0"/>
+        <f>E28/(D28+E28)</f>
         <v>0.11190053285968028</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>263</v>
@@ -4940,13 +5978,13 @@
         <v>50</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="0"/>
+        <f>E29/(D29+E29)</f>
         <v>0.12333333333333334</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>952</v>
@@ -4958,16 +5996,16 @@
         <v>827</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="0"/>
+        <f>E30/(D30+E30)</f>
         <v>0.16417910447761194</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31">
         <v>2107</v>
@@ -4979,13 +6017,13 @@
         <v>456</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="0"/>
+        <f>E31/(D31+E31)</f>
         <v>0.12208333333333334</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>273</v>
@@ -4997,13 +6035,13 @@
         <v>96</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="0"/>
+        <f>E32/(D32+E32)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33">
         <v>50</v>
@@ -5015,13 +6053,13 @@
         <v>24</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="0"/>
+        <f>E33/(D33+E33)</f>
         <v>0.12280701754385964</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34">
         <v>43</v>
@@ -5033,13 +6071,13 @@
         <v>16</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="0"/>
+        <f>E34/(D34+E34)</f>
         <v>0.18867924528301888</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <v>51</v>
@@ -5051,13 +6089,13 @@
         <v>4</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="0"/>
+        <f>E35/(D35+E35)</f>
         <v>0.1206896551724138</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>691</v>
@@ -5069,16 +6107,16 @@
         <v>583</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="0"/>
+        <f>E36/(D36+E36)</f>
         <v>0.14796547472256474</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>2167</v>
@@ -5090,13 +6128,13 @@
         <v>508</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="0"/>
+        <f>E37/(D37+E37)</f>
         <v>0.11838893409275834</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38">
         <v>251</v>
@@ -5108,13 +6146,13 @@
         <v>62</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="0"/>
+        <f>E38/(D38+E38)</f>
         <v>0.18770226537216828</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39">
         <v>44</v>
@@ -5126,13 +6164,13 @@
         <v>2</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="0"/>
+        <f>E39/(D39+E39)</f>
         <v>2.2222222222222223E-2</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40">
         <v>22</v>
@@ -5144,13 +6182,13 @@
         <v>3</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="0"/>
+        <f>E40/(D40+E40)</f>
         <v>0.12</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D41">
         <v>731</v>
@@ -5162,16 +6200,16 @@
         <v>604</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="0"/>
+        <f>E41/(D41+E41)</f>
         <v>0.14402810304449648</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D42">
         <v>1917</v>
@@ -5183,13 +6221,13 @@
         <v>362</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="0"/>
+        <f>E42/(D42+E42)</f>
         <v>0.11740331491712708</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43">
         <v>537</v>
@@ -5201,13 +6239,13 @@
         <v>187</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="0"/>
+        <f>E43/(D43+E43)</f>
         <v>0.13804173354735153</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>761</v>
@@ -5219,16 +6257,16 @@
         <v>630</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="0"/>
+        <f>E44/(D44+E44)</f>
         <v>0.15066964285714285</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45">
         <v>1092</v>
@@ -5240,13 +6278,13 @@
         <v>286</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="0"/>
+        <f>E45/(D45+E45)</f>
         <v>0.17584905660377359</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>1100</v>
@@ -5258,13 +6296,13 @@
         <v>207</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="0"/>
+        <f>E46/(D46+E46)</f>
         <v>7.4852817493692173E-2</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47">
         <v>181</v>
@@ -5276,13 +6314,13 @@
         <v>40</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="0"/>
+        <f>E47/(D47+E47)</f>
         <v>6.7010309278350513E-2</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48">
         <v>33</v>
@@ -5294,13 +6332,13 @@
         <v>4</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="0"/>
+        <f>E48/(D48+E48)</f>
         <v>0.10810810810810811</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D49">
         <v>809</v>
@@ -5312,16 +6350,16 @@
         <v>642</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="0"/>
+        <f>E49/(D49+E49)</f>
         <v>0.14482029598308668</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50">
         <v>1896</v>
@@ -5333,13 +6371,13 @@
         <v>447</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="0"/>
+        <f>E50/(D50+E50)</f>
         <v>0.11854951185495119</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51">
         <v>387</v>
@@ -5351,13 +6389,13 @@
         <v>81</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="0"/>
+        <f>E51/(D51+E51)</f>
         <v>0.12045454545454545</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <v>246</v>
@@ -5369,13 +6407,13 @@
         <v>52</v>
       </c>
       <c r="G52" s="8">
-        <f t="shared" si="0"/>
+        <f>E52/(D52+E52)</f>
         <v>0.15172413793103448</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>686</v>
@@ -5387,16 +6425,16 @@
         <v>599</v>
       </c>
       <c r="G53" s="8">
-        <f t="shared" si="0"/>
+        <f>E53/(D53+E53)</f>
         <v>0.15308641975308643</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>3115</v>
@@ -5408,13 +6446,13 @@
         <v>222</v>
       </c>
       <c r="G54" s="8">
-        <f t="shared" si="0"/>
+        <f>E54/(D54+E54)</f>
         <v>0.12867132867132866</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>28</v>
@@ -5426,13 +6464,13 @@
         <v>1</v>
       </c>
       <c r="G55" s="8">
-        <f t="shared" si="0"/>
+        <f>E55/(D55+E55)</f>
         <v>0.24324324324324326</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D56">
         <v>14</v>
@@ -5444,13 +6482,13 @@
         <v>4</v>
       </c>
       <c r="G56" s="8">
-        <f t="shared" si="0"/>
+        <f>E56/(D56+E56)</f>
         <v>0.17647058823529413</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -5462,13 +6500,13 @@
         <v>2</v>
       </c>
       <c r="G57" s="8">
-        <f t="shared" si="0"/>
+        <f>E57/(D57+E57)</f>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D58">
         <v>48</v>
@@ -5480,16 +6518,16 @@
         <v>950</v>
       </c>
       <c r="G58" s="8">
-        <f t="shared" si="0"/>
+        <f>E58/(D58+E58)</f>
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D59">
         <v>3215</v>
@@ -5501,13 +6539,13 @@
         <v>0</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="0"/>
+        <f>E59/(D59+E59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -5519,13 +6557,13 @@
         <v>0</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="0"/>
+        <f>E60/(D60+E60)</f>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -5537,16 +6575,16 @@
         <v>1179</v>
       </c>
       <c r="G61" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>E61/(D61+E61)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>2263</v>
@@ -5558,13 +6596,13 @@
         <v>536</v>
       </c>
       <c r="G62" s="8">
-        <f t="shared" si="0"/>
+        <f>E62/(D62+E62)</f>
         <v>0.12320805889190237</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>178</v>
@@ -5576,13 +6614,13 @@
         <v>37</v>
       </c>
       <c r="G63" s="8">
-        <f t="shared" si="0"/>
+        <f>E63/(D63+E63)</f>
         <v>0.14009661835748793</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D64">
         <v>91</v>
@@ -5594,13 +6632,13 @@
         <v>19</v>
       </c>
       <c r="G64" s="8">
-        <f t="shared" si="0"/>
+        <f>E64/(D64+E64)</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D65">
         <v>683</v>
@@ -5612,16 +6650,16 @@
         <v>587</v>
       </c>
       <c r="G65" s="8">
-        <f t="shared" si="0"/>
+        <f>E65/(D65+E65)</f>
         <v>0.14518147684605756</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <v>1453</v>
@@ -5633,13 +6671,13 @@
         <v>228</v>
       </c>
       <c r="G66" s="8">
-        <f t="shared" si="0"/>
+        <f>E66/(D66+E66)</f>
         <v>9.0738423028785986E-2</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D67">
         <v>676</v>
@@ -5651,13 +6689,13 @@
         <v>138</v>
       </c>
       <c r="G67" s="8">
-        <f t="shared" ref="G67:G81" si="1">E67/(D67+E67)</f>
+        <f>E67/(D67+E67)</f>
         <v>0.1560549313358302</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68">
         <v>34</v>
@@ -5669,13 +6707,13 @@
         <v>2</v>
       </c>
       <c r="G68" s="8">
-        <f t="shared" si="1"/>
+        <f>E68/(D68+E68)</f>
         <v>0.17073170731707318</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D69">
         <v>1052</v>
@@ -5687,16 +6725,16 @@
         <v>811</v>
       </c>
       <c r="G69" s="8">
-        <f t="shared" si="1"/>
+        <f>E69/(D69+E69)</f>
         <v>0.15907274180655476</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D70">
         <v>658</v>
@@ -5708,13 +6746,13 @@
         <v>96</v>
       </c>
       <c r="G70" s="8">
-        <f t="shared" si="1"/>
+        <f>E70/(D70+E70)</f>
         <v>9.4910591471801919E-2</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71">
         <v>527</v>
@@ -5726,13 +6764,13 @@
         <v>107</v>
       </c>
       <c r="G71" s="8">
-        <f t="shared" si="1"/>
+        <f>E71/(D71+E71)</f>
         <v>0.14862681744749595</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D72">
         <v>289</v>
@@ -5744,13 +6782,13 @@
         <v>36</v>
       </c>
       <c r="G72" s="8">
-        <f t="shared" si="1"/>
+        <f>E72/(D72+E72)</f>
         <v>0.11620795107033639</v>
       </c>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D73">
         <v>219</v>
@@ -5762,13 +6800,13 @@
         <v>42</v>
       </c>
       <c r="G73" s="8">
-        <f t="shared" si="1"/>
+        <f>E73/(D73+E73)</f>
         <v>0.12048192771084337</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D74">
         <v>128</v>
@@ -5780,13 +6818,13 @@
         <v>18</v>
       </c>
       <c r="G74" s="8">
-        <f t="shared" si="1"/>
+        <f>E74/(D74+E74)</f>
         <v>7.9136690647482008E-2</v>
       </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D75">
         <v>75</v>
@@ -5798,13 +6836,13 @@
         <v>10</v>
       </c>
       <c r="G75" s="8">
-        <f t="shared" si="1"/>
+        <f>E75/(D75+E75)</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>18</v>
@@ -5816,13 +6854,13 @@
         <v>1</v>
       </c>
       <c r="G76" s="8">
-        <f t="shared" si="1"/>
+        <f>E76/(D76+E76)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D77">
         <v>6</v>
@@ -5834,13 +6872,13 @@
         <v>1</v>
       </c>
       <c r="G77" s="8">
-        <f t="shared" si="1"/>
+        <f>E77/(D77+E77)</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -5852,13 +6890,13 @@
         <v>0</v>
       </c>
       <c r="G78" s="8">
-        <f t="shared" si="1"/>
+        <f>E78/(D78+E78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D79">
         <v>1292</v>
@@ -5870,13 +6908,13 @@
         <v>868</v>
       </c>
       <c r="G79" s="8">
-        <f t="shared" si="1"/>
+        <f>E79/(D79+E79)</f>
         <v>0.14888010540184454</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -5891,7 +6929,7 @@
         <v>758</v>
       </c>
       <c r="G80" s="8">
-        <f t="shared" si="1"/>
+        <f>E80/(D80+E80)</f>
         <v>0.13427683810838797</v>
       </c>
     </row>
@@ -5909,7 +6947,7 @@
         <v>421</v>
       </c>
       <c r="G81" s="8">
-        <f t="shared" si="1"/>
+        <f>E81/(D81+E81)</f>
         <v>0.10957178841309824</v>
       </c>
     </row>
@@ -5926,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2F87C6-2975-4B4B-8F71-08223C6727DF}">
   <dimension ref="B1:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:E71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5941,24 +6979,24 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
         <f>SUM(C4:C5)</f>
@@ -5979,12 +7017,12 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2237</v>
@@ -6002,7 +7040,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>978</v>
@@ -6020,7 +7058,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -6028,7 +7066,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7">
         <v>1453</v>
@@ -6046,7 +7084,7 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8">
         <v>676</v>
@@ -6064,7 +7102,7 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>34</v>
@@ -6082,7 +7120,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1052</v>
@@ -6098,7 +7136,7 @@
         <v>9.6508244422890396E-2</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="7">
         <v>3</v>
@@ -6116,13 +7154,13 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="J11" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7">
         <v>18</v>
@@ -6140,7 +7178,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -6156,7 +7194,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7">
         <v>658</v>
@@ -6174,7 +7212,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7">
         <v>18</v>
@@ -6190,7 +7228,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7">
         <v>527</v>
@@ -6208,7 +7246,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="7">
         <v>658</v>
@@ -6224,7 +7262,7 @@
         <v>8.3839611178614826E-2</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7">
         <v>289</v>
@@ -6242,7 +7280,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="7">
         <v>527</v>
@@ -6258,7 +7296,7 @@
         <v>0.12672176308539945</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K15" s="7">
         <v>219</v>
@@ -6276,7 +7314,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="7">
         <v>289</v>
@@ -6292,7 +7330,7 @@
         <v>0.1046831955922865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7">
         <v>128</v>
@@ -6310,7 +7348,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C17" s="7">
         <v>219</v>
@@ -6326,7 +7364,7 @@
         <v>0.10309278350515463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7">
         <v>75</v>
@@ -6344,7 +7382,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="7">
         <v>128</v>
@@ -6360,7 +7398,7 @@
         <v>7.0063694267515922E-2</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="7">
         <v>6</v>
@@ -6378,7 +7416,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19" s="7">
         <v>75</v>
@@ -6394,7 +7432,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="7">
         <v>1292</v>
@@ -6412,7 +7450,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -6430,7 +7468,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="7">
         <v>1292</v>
@@ -6448,7 +7486,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -6456,7 +7494,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>1896</v>
@@ -6474,7 +7512,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>387</v>
@@ -6492,7 +7530,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>246</v>
@@ -6510,7 +7548,7 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>686</v>
@@ -6528,7 +7566,7 @@
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -6536,7 +7574,7 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>2809</v>
@@ -6554,7 +7592,7 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>116</v>
@@ -6572,7 +7610,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>71</v>
@@ -6590,7 +7628,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>63</v>
@@ -6608,7 +7646,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>38</v>
@@ -6626,7 +7664,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>28</v>
@@ -6644,7 +7682,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>27</v>
@@ -6662,7 +7700,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>27</v>
@@ -6680,7 +7718,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -6698,7 +7736,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -6716,7 +7754,7 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -6734,7 +7772,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -6752,7 +7790,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -6760,7 +7798,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>2263</v>
@@ -6778,7 +7816,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>178</v>
@@ -6796,7 +7834,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>91</v>
@@ -6814,7 +7852,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44">
         <v>683</v>
@@ -6832,7 +7870,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -6840,7 +7878,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>1736</v>
@@ -6858,7 +7896,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C47">
         <v>575</v>
@@ -6876,7 +7914,7 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>389</v>
@@ -6894,7 +7932,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>185</v>
@@ -6912,7 +7950,7 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C50">
         <v>37</v>
@@ -6930,7 +7968,7 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>293</v>
@@ -6948,7 +7986,7 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -6956,7 +7994,7 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C53">
         <v>2252</v>
@@ -6974,7 +8012,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C54">
         <v>43</v>
@@ -6992,7 +8030,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>920</v>
@@ -7010,7 +8048,7 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -7018,7 +8056,7 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C57">
         <v>2000</v>
@@ -7036,7 +8074,7 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58">
         <v>263</v>
@@ -7054,7 +8092,7 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>952</v>
@@ -7072,7 +8110,7 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -7080,7 +8118,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>2107</v>
@@ -7098,7 +8136,7 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62">
         <v>273</v>
@@ -7116,7 +8154,7 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>50</v>
@@ -7134,7 +8172,7 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64">
         <v>43</v>
@@ -7152,7 +8190,7 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65">
         <v>51</v>
@@ -7170,7 +8208,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>691</v>
@@ -7188,7 +8226,7 @@
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -7196,7 +8234,7 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C68">
         <v>2167</v>
@@ -7214,7 +8252,7 @@
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>251</v>
@@ -7232,7 +8270,7 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C70">
         <v>44</v>
@@ -7250,7 +8288,7 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71">
         <v>22</v>
@@ -7268,7 +8306,7 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>731</v>
@@ -7286,7 +8324,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -7294,7 +8332,7 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74">
         <v>1917</v>
@@ -7312,7 +8350,7 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C75">
         <v>537</v>
@@ -7330,7 +8368,7 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76">
         <v>761</v>
@@ -7348,7 +8386,7 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -7356,7 +8394,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C78">
         <v>1092</v>
@@ -7374,7 +8412,7 @@
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79">
         <v>1100</v>
@@ -7392,7 +8430,7 @@
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C80">
         <v>181</v>
@@ -7410,7 +8448,7 @@
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C81">
         <v>33</v>
@@ -7428,7 +8466,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82">
         <v>809</v>
@@ -7446,7 +8484,7 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -7454,7 +8492,7 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C84">
         <v>3115</v>
@@ -7472,7 +8510,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C85">
         <v>28</v>
@@ -7490,7 +8528,7 @@
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C86">
         <v>14</v>
@@ -7508,7 +8546,7 @@
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -7526,7 +8564,7 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>48</v>
@@ -7543,25 +8581,25 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
